--- a/data/statistical/filled_NaN_xlsx/陕西省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/陕西省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>41.2</v>
       </c>
       <c r="E2">
-        <v>587.3767859712243</v>
+        <v>587.3767861872911</v>
       </c>
       <c r="F2">
         <v>5378.04</v>
@@ -609,85 +609,85 @@
         <v>4.12</v>
       </c>
       <c r="H2">
-        <v>43.5458195329702</v>
+        <v>43.54581953180605</v>
       </c>
       <c r="I2">
-        <v>4.208266253817783</v>
+        <v>4.208266253826878</v>
       </c>
       <c r="J2">
-        <v>76.37109124101698</v>
+        <v>76.3710911963135</v>
       </c>
       <c r="K2">
-        <v>28.71737905626651</v>
+        <v>28.71737905358896</v>
       </c>
       <c r="L2">
-        <v>1.261574462087083</v>
+        <v>1.261574462070712</v>
       </c>
       <c r="M2">
-        <v>331.0366592835635</v>
+        <v>331.0366592770442</v>
       </c>
       <c r="N2">
-        <v>136.257107854588</v>
+        <v>136.2571078483015</v>
       </c>
       <c r="O2">
-        <v>29.87220586510375</v>
+        <v>29.87220586743206</v>
       </c>
       <c r="P2">
-        <v>3376.995250766299</v>
+        <v>2881.886694845708</v>
       </c>
       <c r="Q2">
-        <v>93.53203431383008</v>
+        <v>93.5320343140047</v>
       </c>
       <c r="R2">
-        <v>15.9772239390295</v>
+        <v>15.9772239336744</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-58873.29473237693</v>
       </c>
       <c r="T2">
-        <v>59720.16176116467</v>
+        <v>59720.16176450253</v>
       </c>
       <c r="U2">
-        <v>1.392108541722282</v>
+        <v>1.533506708293855</v>
       </c>
       <c r="V2">
-        <v>6.703869971213862</v>
+        <v>6.703869969584048</v>
       </c>
       <c r="W2">
-        <v>21.58199999690987</v>
+        <v>21.58199999434873</v>
       </c>
       <c r="X2">
-        <v>20275.49083526443</v>
+        <v>15562.7539095394</v>
       </c>
       <c r="Y2">
-        <v>36.34604392433539</v>
+        <v>36.34604392526671</v>
       </c>
       <c r="Z2">
-        <v>376558.2897260817</v>
+        <v>412856.6855650738</v>
       </c>
       <c r="AA2">
-        <v>164.2914946640978</v>
+        <v>109.9405594929121</v>
       </c>
       <c r="AB2">
-        <v>926630.983341217</v>
+        <v>158795.5119285583</v>
       </c>
       <c r="AC2">
-        <v>952987.2871131897</v>
+        <v>177291.3163337708</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-127.9335663616657</v>
       </c>
       <c r="AE2">
-        <v>23905.782523036</v>
+        <v>3905.853023350239</v>
       </c>
       <c r="AF2">
-        <v>9574.92237791419</v>
+        <v>-11.85121952276677</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>4545.352916731664</v>
       </c>
       <c r="AH2">
-        <v>202138.5568037173</v>
+        <v>7881.367816427838</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>4.29</v>
       </c>
       <c r="H3">
-        <v>43.89532826578943</v>
+        <v>43.89532826474169</v>
       </c>
       <c r="I3">
         <v>3.8</v>
       </c>
       <c r="J3">
-        <v>57.24673126637936</v>
+        <v>57.2467312309891</v>
       </c>
       <c r="K3">
         <v>25.8915184023001</v>
@@ -743,13 +743,13 @@
         <v>97.48999999999999</v>
       </c>
       <c r="R3">
-        <v>14.0139705860056</v>
+        <v>14.01397058053408</v>
       </c>
       <c r="S3">
         <v>28772.9</v>
       </c>
       <c r="T3">
-        <v>60923.35293841362</v>
+        <v>60923.35294055939</v>
       </c>
       <c r="U3">
         <v>1.29</v>
@@ -764,34 +764,34 @@
         <v>8315</v>
       </c>
       <c r="Y3">
-        <v>47.74829667713493</v>
+        <v>47.74829667899758</v>
       </c>
       <c r="Z3">
-        <v>334902.0882832392</v>
+        <v>279449.0631999435</v>
       </c>
       <c r="AA3">
-        <v>169.3580426835751</v>
+        <v>96.95454550022259</v>
       </c>
       <c r="AB3">
-        <v>831771.2500801086</v>
+        <v>133679.6895446777</v>
       </c>
       <c r="AC3">
-        <v>844611.5493202209</v>
+        <v>149523.3299598694</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-129.6958041377366</v>
       </c>
       <c r="AE3">
-        <v>20185.10559904575</v>
+        <v>3307.262802422047</v>
       </c>
       <c r="AF3">
-        <v>8431.440244346857</v>
+        <v>-3.175609764643013</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3377.159322523259</v>
       </c>
       <c r="AH3">
-        <v>186573.0101192561</v>
+        <v>7175.933098615192</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>4.26</v>
       </c>
       <c r="H4">
-        <v>44.3199448545929</v>
+        <v>44.31994485366158</v>
       </c>
       <c r="I4">
         <v>3.8</v>
       </c>
       <c r="J4">
-        <v>43.51754724234343</v>
+        <v>43.51754720881581</v>
       </c>
       <c r="K4">
         <v>22.358120406351</v>
@@ -847,7 +847,7 @@
         <v>97.22</v>
       </c>
       <c r="R4">
-        <v>12.40279411652591</v>
+        <v>12.40279411093798</v>
       </c>
       <c r="S4">
         <v>27163.5</v>
@@ -868,34 +868,34 @@
         <v>5493</v>
       </c>
       <c r="Y4">
-        <v>57.64203294506297</v>
+        <v>57.64203294878826</v>
       </c>
       <c r="Z4">
         <v>564862</v>
       </c>
       <c r="AA4">
-        <v>165.4613157645662</v>
+        <v>85.01048954902217</v>
       </c>
       <c r="AB4">
-        <v>749629.2271690369</v>
+        <v>111208.281247139</v>
       </c>
       <c r="AC4">
-        <v>751972.7875556946</v>
+        <v>124691.5684099197</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-125.8546453043818</v>
       </c>
       <c r="AE4">
-        <v>16793.41069316864</v>
+        <v>2760.135252401233</v>
       </c>
       <c r="AF4">
-        <v>7359.479055702686</v>
+        <v>4.746341456193477</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2994.826996227629</v>
       </c>
       <c r="AH4">
-        <v>189652.806076319</v>
+        <v>946.3378673356073</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.2</v>
       </c>
       <c r="J5">
-        <v>35.18353916145861</v>
+        <v>35.18353913538158</v>
       </c>
       <c r="K5">
         <v>19.2718342942558</v>
@@ -972,34 +972,34 @@
         <v>5890</v>
       </c>
       <c r="Y5">
-        <v>66.02725272998214</v>
+        <v>66.02725273417309</v>
       </c>
       <c r="Z5">
         <v>198853</v>
       </c>
       <c r="AA5">
-        <v>166.4837413015627</v>
+        <v>74.10839164117351</v>
       </c>
       <c r="AB5">
-        <v>680204.9145927429</v>
+        <v>91381.28703403473</v>
       </c>
       <c r="AC5">
-        <v>675071.0018196106</v>
+        <v>102796.0316886902</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-116.4100898727775</v>
       </c>
       <c r="AE5">
-        <v>13730.69780516624</v>
+        <v>2264.470373243093</v>
       </c>
       <c r="AF5">
-        <v>6359.038811951876</v>
+        <v>11.91463414067402</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1513.904818025025</v>
       </c>
       <c r="AH5">
-        <v>194202.8176384441</v>
+        <v>4465.76284114416</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>6219</v>
       </c>
       <c r="Y6">
-        <v>72.90395603096113</v>
+        <v>72.90395603468642</v>
       </c>
       <c r="Z6">
         <v>196190</v>
       </c>
       <c r="AA6">
-        <v>164.4127724526941</v>
+        <v>64.24825177481398</v>
       </c>
       <c r="AB6">
-        <v>623498.3123664856</v>
+        <v>74198.70690917969</v>
       </c>
       <c r="AC6">
-        <v>613906.1921157837</v>
+        <v>83836.71979045868</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-101.3621378354728</v>
       </c>
       <c r="AE6">
-        <v>10996.96693539619</v>
+        <v>1820.268164992332</v>
       </c>
       <c r="AF6">
-        <v>5430.119512975216</v>
+        <v>18.32926828810014</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1037.182049193732</v>
       </c>
       <c r="AH6">
-        <v>175599.5162462133</v>
+        <v>10367.15223959735</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>245775</v>
       </c>
       <c r="AA7">
-        <v>167.0412159736929</v>
+        <v>55.43006995180622</v>
       </c>
       <c r="AB7">
-        <v>579509.4204750061</v>
+        <v>59660.54087162018</v>
       </c>
       <c r="AC7">
-        <v>568478.3584327698</v>
+        <v>67813.63272094727</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-80.71078919246793</v>
       </c>
       <c r="AE7">
-        <v>8592.218083620071</v>
+        <v>1427.528627604246</v>
       </c>
       <c r="AF7">
-        <v>4572.721158951521</v>
+        <v>23.99024389940314</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1698.810728332532</v>
       </c>
       <c r="AH7">
-        <v>147030.1672979075</v>
+        <v>6739.339747660871</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>275245</v>
       </c>
       <c r="AA8">
-        <v>164.6752246007626</v>
+        <v>47.65384617168456</v>
       </c>
       <c r="AB8">
-        <v>548238.2389297485</v>
+        <v>47766.78891849518</v>
       </c>
       <c r="AC8">
-        <v>538787.5007781982</v>
+        <v>54726.77047538757</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-54.45604394376278</v>
       </c>
       <c r="AE8">
-        <v>6516.451249957085</v>
+        <v>1086.251761123538</v>
       </c>
       <c r="AF8">
-        <v>3786.843749821186</v>
+        <v>28.89756097341888</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2135.668071790116</v>
       </c>
       <c r="AH8">
-        <v>150026.04021313</v>
+        <v>3668.485439129769</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>449453</v>
       </c>
       <c r="AA9">
-        <v>173.6813861760261</v>
+        <v>40.91958043258637</v>
       </c>
       <c r="AB9">
-        <v>529684.7677307129</v>
+        <v>38517.45105266571</v>
       </c>
       <c r="AC9">
-        <v>524833.6191596985</v>
+        <v>44576.1330575943</v>
       </c>
       <c r="AD9">
-        <v>23.34440547227859</v>
+        <v>-22.59790209122002</v>
       </c>
       <c r="AE9">
-        <v>4769.666434288025</v>
+        <v>796.4375655055046</v>
       </c>
       <c r="AF9">
-        <v>3072.487285524607</v>
+        <v>33.05121951107867</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1977.931436719394</v>
       </c>
       <c r="AH9">
-        <v>172045.1070582563</v>
+        <v>1451.697644696996</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>364312</v>
       </c>
       <c r="AA10">
-        <v>147.2951671940447</v>
+        <v>35.22727273730561</v>
       </c>
       <c r="AB10">
-        <v>523849.0068664551</v>
+        <v>31912.52727508545</v>
       </c>
       <c r="AC10">
-        <v>526616.713558197</v>
+        <v>37361.72046375275</v>
       </c>
       <c r="AD10">
-        <v>406.0227271318436</v>
+        <v>14.8636363632977</v>
       </c>
       <c r="AE10">
-        <v>3351.863636612892</v>
+        <v>558.0860407948494</v>
       </c>
       <c r="AF10">
-        <v>2429.651766061783</v>
+        <v>36.45121951168403</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>3024.38785294939</v>
       </c>
       <c r="AH10">
-        <v>183972.0971796947</v>
+        <v>-106.2409667805262</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>325752</v>
       </c>
       <c r="AA11">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="AB11">
-        <v>469512</v>
+        <v>23901</v>
       </c>
       <c r="AC11">
-        <v>475690</v>
+        <v>22546</v>
       </c>
       <c r="AD11">
-        <v>1108</v>
+        <v>59</v>
       </c>
       <c r="AE11">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="AF11">
-        <v>2861</v>
+        <v>35</v>
       </c>
       <c r="AG11">
-        <v>1471</v>
+        <v>60</v>
       </c>
       <c r="AH11">
-        <v>113283</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>320287</v>
       </c>
       <c r="AA12">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AB12">
-        <v>553120</v>
+        <v>29271</v>
       </c>
       <c r="AC12">
-        <v>572372</v>
+        <v>34980</v>
       </c>
       <c r="AD12">
-        <v>1399</v>
+        <v>109</v>
       </c>
       <c r="AE12">
-        <v>1340</v>
+        <v>273</v>
       </c>
       <c r="AF12">
-        <v>646</v>
+        <v>47</v>
       </c>
       <c r="AG12">
-        <v>995</v>
+        <v>26</v>
       </c>
       <c r="AH12">
-        <v>143419</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>343981</v>
       </c>
       <c r="AA13">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="AB13">
-        <v>583150</v>
+        <v>30488</v>
       </c>
       <c r="AC13">
-        <v>675881</v>
+        <v>43730</v>
       </c>
       <c r="AD13">
-        <v>1855</v>
+        <v>102</v>
       </c>
       <c r="AE13">
-        <v>1485</v>
+        <v>151.807492166758</v>
       </c>
       <c r="AF13">
-        <v>182</v>
+        <v>42.1292682909407</v>
       </c>
       <c r="AG13">
-        <v>1161</v>
+        <v>2776.04657185363</v>
       </c>
       <c r="AH13">
-        <v>136442</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>335362</v>
       </c>
       <c r="AA14">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="AB14">
-        <v>674406</v>
+        <v>40671</v>
       </c>
       <c r="AC14">
-        <v>791615</v>
+        <v>54866</v>
       </c>
       <c r="AD14">
-        <v>2551</v>
+        <v>197</v>
       </c>
       <c r="AE14">
-        <v>1366</v>
+        <v>119.306650906801</v>
       </c>
       <c r="AF14">
-        <v>274</v>
+        <v>42.5146341456566</v>
       </c>
       <c r="AG14">
-        <v>10382</v>
+        <v>1243.27401904853</v>
       </c>
       <c r="AH14">
-        <v>274618</v>
+        <v>21248</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>379086</v>
       </c>
       <c r="AA15">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AB15">
-        <v>768874</v>
+        <v>33191</v>
       </c>
       <c r="AC15">
-        <v>795000</v>
+        <v>37185</v>
       </c>
       <c r="AD15">
-        <v>2978</v>
+        <v>384</v>
       </c>
       <c r="AE15">
-        <v>3514</v>
+        <v>128</v>
       </c>
       <c r="AF15">
-        <v>536</v>
+        <v>40</v>
       </c>
       <c r="AG15">
-        <v>3749</v>
+        <v>465</v>
       </c>
       <c r="AH15">
-        <v>227208</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>297642</v>
       </c>
       <c r="AA16">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="AB16">
-        <v>837638</v>
+        <v>39084</v>
       </c>
       <c r="AC16">
-        <v>895435</v>
+        <v>36061</v>
       </c>
       <c r="AD16">
-        <v>4226</v>
+        <v>429</v>
       </c>
       <c r="AE16">
-        <v>3879</v>
+        <v>50</v>
       </c>
       <c r="AF16">
-        <v>262</v>
+        <v>41.0243902450893</v>
       </c>
       <c r="AG16">
-        <v>6449</v>
+        <v>3643.91838167778</v>
       </c>
       <c r="AH16">
-        <v>180158</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>437.798</v>
       </c>
       <c r="K17">
-        <v>8.982853673980571</v>
+        <v>8.982853676425293</v>
       </c>
       <c r="L17">
-        <v>0.9196910134669452</v>
+        <v>0.9196910134814971</v>
       </c>
       <c r="M17">
         <v>8.48479894569614</v>
@@ -2226,28 +2226,28 @@
         <v>334786</v>
       </c>
       <c r="AA17">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="AB17">
-        <v>840078.3</v>
+        <v>50753.8</v>
       </c>
       <c r="AC17">
-        <v>924195</v>
+        <v>57254</v>
       </c>
       <c r="AD17">
-        <v>5165</v>
+        <v>446</v>
       </c>
       <c r="AE17">
-        <v>1117</v>
+        <v>645</v>
       </c>
       <c r="AF17">
-        <v>263</v>
+        <v>39.1487804898061</v>
       </c>
       <c r="AG17">
-        <v>7777</v>
+        <v>2013</v>
       </c>
       <c r="AH17">
-        <v>159368</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>505.4</v>
       </c>
       <c r="K18">
-        <v>9.875111448462121</v>
+        <v>9.87511145148892</v>
       </c>
       <c r="L18">
-        <v>0.9154810798499966</v>
+        <v>0.9154810798663675</v>
       </c>
       <c r="M18">
         <v>6.02398200858324</v>
@@ -2312,7 +2312,7 @@
         <v>139833</v>
       </c>
       <c r="U18">
-        <v>1.320407604687927</v>
+        <v>1.417413114680501</v>
       </c>
       <c r="V18">
         <v>93.2</v>
@@ -2330,28 +2330,28 @@
         <v>348094</v>
       </c>
       <c r="AA18">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="AB18">
-        <v>812559.6</v>
+        <v>94593.2</v>
       </c>
       <c r="AC18">
-        <v>963621.7</v>
+        <v>109714.5</v>
       </c>
       <c r="AD18">
-        <v>6623</v>
+        <v>479</v>
       </c>
       <c r="AE18">
-        <v>7844.8</v>
+        <v>156.2</v>
       </c>
       <c r="AF18">
-        <v>2.7</v>
+        <v>36.5195121979341</v>
       </c>
       <c r="AG18">
-        <v>10497.5</v>
+        <v>6451.5</v>
       </c>
       <c r="AH18">
-        <v>124860.3</v>
+        <v>5014.8</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>46.6114</v>
       </c>
       <c r="E19">
-        <v>19851.8017860651</v>
+        <v>19851.8017859906</v>
       </c>
       <c r="F19">
         <v>23514.2811</v>
@@ -2386,10 +2386,10 @@
         <v>469.6</v>
       </c>
       <c r="K19">
-        <v>11.04335582326166</v>
+        <v>11.04335582652129</v>
       </c>
       <c r="L19">
-        <v>0.9135939332663838</v>
+        <v>0.9135939332854832</v>
       </c>
       <c r="M19">
         <v>5.55422229993444</v>
@@ -2416,13 +2416,13 @@
         <v>64978</v>
       </c>
       <c r="U19">
-        <v>1.337771993841761</v>
+        <v>1.387178683111867</v>
       </c>
       <c r="V19">
         <v>95.5</v>
       </c>
       <c r="W19">
-        <v>103.4587142879609</v>
+        <v>103.4587142872624</v>
       </c>
       <c r="X19">
         <v>11904</v>
@@ -2434,28 +2434,28 @@
         <v>333451</v>
       </c>
       <c r="AA19">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="AB19">
-        <v>977969</v>
+        <v>88613.10000000001</v>
       </c>
       <c r="AC19">
-        <v>1215704.1</v>
+        <v>121063.2</v>
       </c>
       <c r="AD19">
-        <v>7170</v>
+        <v>476</v>
       </c>
       <c r="AE19">
-        <v>5346.4</v>
+        <v>1015</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>33.1365853697061</v>
       </c>
       <c r="AG19">
-        <v>11809.7</v>
+        <v>1039.7</v>
       </c>
       <c r="AH19">
-        <v>201658.5</v>
+        <v>1923.8</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>48.2</v>
       </c>
       <c r="E20">
-        <v>21139.73329877853</v>
+        <v>21139.73329871148</v>
       </c>
       <c r="F20">
         <v>22866.3601</v>
@@ -2490,10 +2490,10 @@
         <v>629.7544</v>
       </c>
       <c r="K20">
-        <v>12.48758679779712</v>
+        <v>12.48758680163883</v>
       </c>
       <c r="L20">
-        <v>0.9140295737215638</v>
+        <v>0.9140295737424822</v>
       </c>
       <c r="M20">
         <v>3.57827900691547</v>
@@ -2520,13 +2520,13 @@
         <v>124301</v>
       </c>
       <c r="U20">
-        <v>1.332565559280626</v>
+        <v>1.078048867237341</v>
       </c>
       <c r="V20">
         <v>96.8</v>
       </c>
       <c r="W20">
-        <v>103.5543403381016</v>
+        <v>103.5543403376359</v>
       </c>
       <c r="X20">
         <v>6948</v>
@@ -2538,28 +2538,28 @@
         <v>324453</v>
       </c>
       <c r="AA20">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="AB20">
-        <v>1023769</v>
+        <v>100039</v>
       </c>
       <c r="AC20">
-        <v>1422072</v>
+        <v>99121</v>
       </c>
       <c r="AD20">
-        <v>8662</v>
+        <v>674</v>
       </c>
       <c r="AE20">
-        <v>608</v>
+        <v>900</v>
       </c>
       <c r="AF20">
-        <v>12</v>
+        <v>29.0000000046566</v>
       </c>
       <c r="AG20">
-        <v>5146</v>
+        <v>68</v>
       </c>
       <c r="AH20">
-        <v>154126</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>45.5994</v>
       </c>
       <c r="E21">
-        <v>22444.85703841597</v>
+        <v>22444.85703834891</v>
       </c>
       <c r="F21">
         <v>24783.7</v>
@@ -2594,19 +2594,19 @@
         <v>538.5106</v>
       </c>
       <c r="K21">
-        <v>14.20780437265057</v>
+        <v>14.20780437660869</v>
       </c>
       <c r="L21">
-        <v>0.9167880012137175</v>
+        <v>0.9167880012346359</v>
       </c>
       <c r="M21">
         <v>2.72205819759755</v>
       </c>
       <c r="N21">
-        <v>148.6943627368892</v>
+        <v>148.6943627441069</v>
       </c>
       <c r="O21">
-        <v>112.1825980478898</v>
+        <v>112.1825980423018</v>
       </c>
       <c r="P21">
         <v>3493.4</v>
@@ -2621,49 +2621,49 @@
         <v>537673</v>
       </c>
       <c r="T21">
-        <v>129562.8676445484</v>
+        <v>129562.867652297</v>
       </c>
       <c r="U21">
-        <v>1.270319362731711</v>
+        <v>1.445363169676489</v>
       </c>
       <c r="V21">
         <v>97.09999999999999</v>
       </c>
       <c r="W21">
-        <v>103.1254495820031</v>
+        <v>103.1254495810717</v>
       </c>
       <c r="X21">
-        <v>25782.26465568117</v>
+        <v>23458.88578890875</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>-4.967472544405609</v>
       </c>
       <c r="Z21">
         <v>324331</v>
       </c>
       <c r="AA21">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="AB21">
-        <v>1455984</v>
+        <v>143996</v>
       </c>
       <c r="AC21">
-        <v>1742894</v>
+        <v>148188</v>
       </c>
       <c r="AD21">
-        <v>8935</v>
+        <v>887</v>
       </c>
       <c r="AE21">
-        <v>572</v>
+        <v>1332.75554677844</v>
       </c>
       <c r="AF21">
-        <v>76</v>
+        <v>24.1097561030183</v>
       </c>
       <c r="AG21">
-        <v>3444</v>
+        <v>5579</v>
       </c>
       <c r="AH21">
-        <v>141508</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>43.5</v>
       </c>
       <c r="E22">
-        <v>23767.17300494015</v>
+        <v>23767.173004888</v>
       </c>
       <c r="F22">
         <v>24765.7524</v>
@@ -2692,82 +2692,82 @@
         <v>64.02</v>
       </c>
       <c r="I22">
-        <v>3.321599587106903</v>
+        <v>3.321599587123274</v>
       </c>
       <c r="J22">
-        <v>718.9673215970397</v>
+        <v>718.9673216193914</v>
       </c>
       <c r="K22">
-        <v>16.20400854723994</v>
+        <v>16.20400855166372</v>
       </c>
       <c r="L22">
-        <v>0.921869215741026</v>
+        <v>0.9218692157619444</v>
       </c>
       <c r="M22">
-        <v>17.4355228850618</v>
+        <v>17.43552289251238</v>
       </c>
       <c r="N22">
-        <v>144.1816434381763</v>
+        <v>144.1816434463253</v>
       </c>
       <c r="O22">
-        <v>131.1895175529644</v>
+        <v>131.1895175459795</v>
       </c>
       <c r="P22">
-        <v>3199.109378547453</v>
+        <v>3555.351450900506</v>
       </c>
       <c r="Q22">
-        <v>103.9551122294506</v>
+        <v>103.9551122293924</v>
       </c>
       <c r="R22">
-        <v>43.60676470061298</v>
+        <v>43.60676471085753</v>
       </c>
       <c r="S22">
         <v>403945</v>
       </c>
       <c r="T22">
-        <v>135986.2892122269</v>
+        <v>135986.2892221212</v>
       </c>
       <c r="U22">
-        <v>1.299597967669461</v>
+        <v>1.170645689842781</v>
       </c>
       <c r="V22">
-        <v>91.56457172939554</v>
+        <v>91.56457172916271</v>
       </c>
       <c r="W22">
-        <v>102.1720420189667</v>
+        <v>102.1720420178026</v>
       </c>
       <c r="X22">
-        <v>21936.57364032831</v>
+        <v>30017.673733128</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>-22.22703299019486</v>
       </c>
       <c r="Z22">
-        <v>354015.4084250588</v>
+        <v>283869.6422600604</v>
       </c>
       <c r="AA22">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="AB22">
-        <v>1463185.4</v>
+        <v>155731.9</v>
       </c>
       <c r="AC22">
-        <v>1712261.4</v>
+        <v>189693.6</v>
       </c>
       <c r="AD22">
-        <v>10713</v>
+        <v>898</v>
       </c>
       <c r="AE22">
-        <v>21885</v>
+        <v>1711.9560725838</v>
       </c>
       <c r="AF22">
-        <v>71</v>
+        <v>18.7</v>
       </c>
       <c r="AG22">
-        <v>1958.5</v>
+        <v>48.2</v>
       </c>
       <c r="AH22">
-        <v>158437.4</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>44.6</v>
       </c>
       <c r="E23">
-        <v>25106.68119835854</v>
+        <v>25106.68119834363</v>
       </c>
       <c r="F23">
-        <v>27052.45613140613</v>
+        <v>27052.45613132045</v>
       </c>
       <c r="G23">
         <v>-1.31</v>
       </c>
       <c r="H23">
-        <v>66.65815269670566</v>
+        <v>66.65815269749146</v>
       </c>
       <c r="I23">
-        <v>3.327219814120326</v>
+        <v>3.327219814140335</v>
       </c>
       <c r="J23">
-        <v>807.7464805487543</v>
+        <v>807.746480576694</v>
       </c>
       <c r="K23">
-        <v>18.47619932179805</v>
+        <v>18.47619932692032</v>
       </c>
       <c r="L23">
-        <v>0.9292732173025797</v>
+        <v>0.9292732173280456</v>
       </c>
       <c r="M23">
-        <v>26.26335156243294</v>
+        <v>26.26335157174617</v>
       </c>
       <c r="N23">
-        <v>139.1521929731825</v>
+        <v>139.1521929824958</v>
       </c>
       <c r="O23">
-        <v>151.6639164169319</v>
+        <v>151.6639164094813</v>
       </c>
       <c r="P23">
-        <v>3074.708489720947</v>
+        <v>2715.291668737322</v>
       </c>
       <c r="Q23">
-        <v>106.1670614038012</v>
+        <v>106.1670614039176</v>
       </c>
       <c r="R23">
-        <v>48.68504901300184</v>
+        <v>48.68504902464338</v>
       </c>
       <c r="S23">
-        <v>563784.9031594247</v>
+        <v>563784.9031619728</v>
       </c>
       <c r="T23">
-        <v>142684.4597479105</v>
+        <v>142684.4597598314</v>
       </c>
       <c r="U23">
-        <v>1.298038266466077</v>
+        <v>1.609510753049845</v>
       </c>
       <c r="V23">
-        <v>88.62560991453938</v>
+        <v>88.62560991407372</v>
       </c>
       <c r="W23">
-        <v>100.6941176489927</v>
+        <v>100.69411764713</v>
       </c>
       <c r="X23">
-        <v>18022.6078775221</v>
+        <v>13475.63227235369</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-40.99510991945863</v>
       </c>
       <c r="Z23">
-        <v>385845.0635677882</v>
+        <v>327199.7402096125</v>
       </c>
       <c r="AA23">
-        <v>162.9010215849178</v>
+        <v>56.04545455193147</v>
       </c>
       <c r="AB23">
-        <v>1605295.756855011</v>
+        <v>186690.2000207901</v>
       </c>
       <c r="AC23">
-        <v>1981861.759277344</v>
+        <v>210770.8159246445</v>
       </c>
       <c r="AD23">
-        <v>12046.79545480013</v>
+        <v>1011.772727306932</v>
       </c>
       <c r="AE23">
-        <v>14857.79091119766</v>
+        <v>2142.619269788265</v>
       </c>
       <c r="AF23">
-        <v>581.1959967017174</v>
+        <v>12.0682926827576</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>120.9420855833862</v>
       </c>
       <c r="AH23">
-        <v>167895.9670778669</v>
+        <v>2505.037934107185</v>
       </c>
     </row>
   </sheetData>
